--- a/out/errors.xlsx
+++ b/out/errors.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C4"/>
+  <dimension ref="A1:C1"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -450,57 +450,6 @@
         </is>
       </c>
     </row>
-    <row r="2">
-      <c r="A2" t="inlineStr">
-        <is>
-          <t>\\192.168.29.200\f\service\0.样品管理部\01 蛋白库相关\06 蛋白编号\00 理化质检-P90000之后在这里查理化质检结果\SEC</t>
-        </is>
-      </c>
-      <c r="B2" t="inlineStr">
-        <is>
-          <t>SEC-YWL230829-JS008-KRSW002-BOA001.PDF</t>
-        </is>
-      </c>
-      <c r="C2" t="inlineStr">
-        <is>
-          <t>NoRelatedPPT</t>
-        </is>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" t="inlineStr">
-        <is>
-          <t>\\192.168.29.200\f\service\0.样品管理部\01 蛋白库相关\06 蛋白编号\00 理化质检-P90000之后在这里查理化质检结果\SEC</t>
-        </is>
-      </c>
-      <c r="B3" t="inlineStr">
-        <is>
-          <t>SEC-YWL230830-LH001.pdf</t>
-        </is>
-      </c>
-      <c r="C3" t="inlineStr">
-        <is>
-          <t>NoRelatedPPT</t>
-        </is>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" t="inlineStr">
-        <is>
-          <t>\\192.168.29.200\f\service\0.样品管理部\01 蛋白库相关\06 蛋白编号\00 理化质检-P90000之后在这里查理化质检结果\SEC</t>
-        </is>
-      </c>
-      <c r="B4" t="inlineStr">
-        <is>
-          <t>【SEC】WJL230822 SYMX05 SYDX-S014 HYB002 ZKSH019 AT-CX XLT002 SYSN001 ZKSH020 SYPX037 YS001 RSPL002 XJ002.pdf</t>
-        </is>
-      </c>
-      <c r="C4" t="inlineStr">
-        <is>
-          <t>NoRelatedPPT</t>
-        </is>
-      </c>
-    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/out/errors.xlsx
+++ b/out/errors.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C1"/>
+  <dimension ref="A1:C3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -450,6 +450,40 @@
         </is>
       </c>
     </row>
+    <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>\\192.168.29.200\f\service\0.样品管理部\01 蛋白库相关\06 蛋白编号\00 理化质检-P90000之后在这里查理化质检结果\SEC</t>
+        </is>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>【SEC】WKL230904-1 ZJ004 HLX1005 HNKJ001.pptx</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>File is not a zip file</t>
+        </is>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>\\192.168.29.200\f\service\0.样品管理部\01 蛋白库相关\06 蛋白编号\00 理化质检-P90000之后在这里查理化质检结果\SEC</t>
+        </is>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>【SEC】WKL230904-1 ZJ004 HLX1005 HNKJ001.pdf</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>NoRelatedPPT</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/out/errors.xlsx
+++ b/out/errors.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>

--- a/out/errors.xlsx
+++ b/out/errors.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C3"/>
+  <dimension ref="A1:C4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -475,10 +475,27 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
+          <t>【SEC】WKL2309018 -2 XWD013.PDF</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>NoRelatedPPT</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>\\192.168.29.200\f\service\0.样品管理部\01 蛋白库相关\06 蛋白编号\00 理化质检-P90000之后在这里查理化质检结果\SEC</t>
+        </is>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
           <t>【SEC】WKL230904-1 ZJ004 HLX1005 HNKJ001.pdf</t>
         </is>
       </c>
-      <c r="C3" t="inlineStr">
+      <c r="C4" t="inlineStr">
         <is>
           <t>NoRelatedPPT</t>
         </is>
